--- a/Excel/HKPL_meter.xlsx
+++ b/Excel/HKPL_meter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02401898-DC18-4828-8AA2-FAD762762545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BEDC83-F910-41E9-8611-91976CB1DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,29 @@
     <t>METER  REPORT</t>
   </si>
   <si>
-    <t>Hare Krishna Steel Tube &amp; Pipes Pvt Ltd (DC Capacity : 6 MW)</t>
+    <t>ADDRESS  - Chaurenga, Simga</t>
   </si>
   <si>
-    <t>ADDRESS  - Chaurenga, Simga</t>
+    <r>
+      <t xml:space="preserve">Hare Krishna Steel Tube &amp; Pipes Pvt Ltd </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DC Capacity : 6 MW)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,14 +59,21 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
@@ -80,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -89,9 +108,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,14 +433,14 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -467,41 +489,41 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+      <c r="A4" s="4" t="s">
+        <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2"/>
